--- a/Running projects/Meezan Bank Head Office/RA FOR MEEZAN.xlsx
+++ b/Running projects/Meezan Bank Head Office/RA FOR MEEZAN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Meezan Bank Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4589755F-51EC-430B-977E-500D483BF958}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008DF8E0-14FA-4D06-A300-04636980A905}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="4710" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,70 +471,16 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,13 +488,67 @@
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -997,7 +997,7 @@
   <dimension ref="A5:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1031,10 +1031,10 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="61"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1057,49 +1057,49 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
       <c r="L8" s="6"/>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37" t="s">
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="60" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="30" t="s">
         <v>8</v>
       </c>
@@ -1109,22 +1109,22 @@
       <c r="F10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
     </row>
     <row r="12" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -1449,7 +1449,7 @@
       <c r="E23" s="14"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="53">
+      <c r="H23" s="35">
         <f>SUM(H12:H22)</f>
         <v>575151.93400000001</v>
       </c>
@@ -1463,47 +1463,47 @@
       <c r="A24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
     </row>
     <row r="25" spans="1:11" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40" t="s">
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="32" t="s">
         <v>8</v>
       </c>
@@ -1513,9 +1513,9 @@
       <c r="F26" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="40"/>
+      <c r="G26" s="58"/>
       <c r="H26" s="31"/>
-      <c r="I26" s="39"/>
+      <c r="I26" s="57"/>
     </row>
     <row r="27" spans="1:11" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
@@ -1557,53 +1557,53 @@
         <f>SUM(H27:H27)</f>
         <v>350000</v>
       </c>
-      <c r="I28" s="54">
+      <c r="I28" s="36">
         <f>H28+H23</f>
         <v>925151.93400000001</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="45"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="48"/>
     </row>
     <row r="30" spans="1:11" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="51" t="s">
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="54" t="s">
         <v>5</v>
       </c>
       <c r="H30" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="46" t="s">
+      <c r="I30" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="34" t="s">
         <v>8</v>
       </c>
@@ -1613,9 +1613,9 @@
       <c r="F31" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="52"/>
+      <c r="G31" s="55"/>
       <c r="H31" s="33"/>
-      <c r="I31" s="47"/>
+      <c r="I31" s="50"/>
     </row>
     <row r="32" spans="1:11" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
@@ -1623,11 +1623,11 @@
         <v>12</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="56">
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38">
         <f>G32*F32</f>
         <v>0</v>
       </c>
@@ -1644,17 +1644,17 @@
       <c r="C33" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="55">
+      <c r="D33" s="37">
         <v>1</v>
       </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55">
+      <c r="E33" s="37"/>
+      <c r="F33" s="37">
         <v>1</v>
       </c>
-      <c r="G33" s="55">
+      <c r="G33" s="37">
         <v>10000</v>
       </c>
-      <c r="H33" s="55">
+      <c r="H33" s="37">
         <f>F33*G33</f>
         <v>10000</v>
       </c>
@@ -1673,7 +1673,7 @@
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
-      <c r="H34" s="56"/>
+      <c r="H34" s="38"/>
       <c r="I34" s="15">
         <f>I33+H34</f>
         <v>935151.93400000001</v>
@@ -1685,23 +1685,23 @@
         <v>36</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="57">
+      <c r="D35" s="39">
         <v>0.25</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
       <c r="I35" s="15">
         <f>I34*D35</f>
         <v>233787.9835</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="42"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="19"/>
       <c r="D36" s="22"/>
       <c r="E36" s="19"/>
@@ -1715,10 +1715,10 @@
       <c r="J36" s="24"/>
     </row>
     <row r="37" spans="1:10" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="42"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="19"/>
       <c r="D37" s="22"/>
       <c r="E37" s="19"/>
@@ -1726,15 +1726,15 @@
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="23">
-        <v>18940</v>
+        <v>169940</v>
       </c>
       <c r="J37" s="24"/>
     </row>
     <row r="38" spans="1:10" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="42"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="19"/>
       <c r="D38" s="22"/>
       <c r="E38" s="19"/>
@@ -1743,45 +1743,58 @@
       <c r="H38" s="20"/>
       <c r="I38" s="23">
         <f>I36-I37</f>
-        <v>1149999.9175</v>
+        <v>998999.91749999998</v>
       </c>
       <c r="J38" s="24"/>
     </row>
     <row r="39" spans="1:10" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="59"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="19"/>
       <c r="D39" s="22"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="58">
+      <c r="I39" s="40">
         <f>I38*15%</f>
-        <v>172499.98762499998</v>
+        <v>149849.98762499998</v>
       </c>
       <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="58">
+      <c r="B40" s="45"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="40">
         <f>I39+I38</f>
-        <v>1322499.905125</v>
+        <v>1148849.905125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="I25:I26"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
@@ -1798,19 +1811,6 @@
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="B24:J24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.39370078740157483" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Running projects/Meezan Bank Head Office/RA FOR MEEZAN.xlsx
+++ b/Running projects/Meezan Bank Head Office/RA FOR MEEZAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Meezan Bank Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008DF8E0-14FA-4D06-A300-04636980A905}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FB7359-4596-40F9-A080-7E8AA547881E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="4710" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,12 +155,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -250,6 +251,12 @@
     <font>
       <b/>
       <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -375,7 +382,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -490,6 +497,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -535,21 +557,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -994,10 +1002,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A5:M40"/>
+  <dimension ref="A5:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1031,10 +1039,10 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1057,49 +1065,49 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="L8" s="6"/>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61" t="s">
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="30" t="s">
         <v>8</v>
       </c>
@@ -1109,22 +1117,22 @@
       <c r="F10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
     </row>
     <row r="12" spans="1:13" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -1463,47 +1471,47 @@
       <c r="A24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
     </row>
     <row r="25" spans="1:11" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58" t="s">
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="57" t="s">
+      <c r="I25" s="45" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="32" t="s">
         <v>8</v>
       </c>
@@ -1513,9 +1521,9 @@
       <c r="F26" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="58"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="31"/>
-      <c r="I26" s="57"/>
+      <c r="I26" s="45"/>
     </row>
     <row r="27" spans="1:11" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
@@ -1563,47 +1571,47 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="48"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
     </row>
     <row r="30" spans="1:11" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="54" t="s">
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59" t="s">
         <v>5</v>
       </c>
       <c r="H30" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="49" t="s">
+      <c r="I30" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="34" t="s">
         <v>8</v>
       </c>
@@ -1613,9 +1621,9 @@
       <c r="F31" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="55"/>
+      <c r="G31" s="60"/>
       <c r="H31" s="33"/>
-      <c r="I31" s="50"/>
+      <c r="I31" s="55"/>
     </row>
     <row r="32" spans="1:11" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
@@ -1698,10 +1706,10 @@
       </c>
     </row>
     <row r="36" spans="1:10" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="44"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="19"/>
       <c r="D36" s="22"/>
       <c r="E36" s="19"/>
@@ -1715,10 +1723,10 @@
       <c r="J36" s="24"/>
     </row>
     <row r="37" spans="1:10" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="44"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="19"/>
       <c r="D37" s="22"/>
       <c r="E37" s="19"/>
@@ -1726,15 +1734,15 @@
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="23">
-        <v>169940</v>
+        <v>300244</v>
       </c>
       <c r="J37" s="24"/>
     </row>
     <row r="38" spans="1:10" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="44"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="19"/>
       <c r="D38" s="22"/>
       <c r="E38" s="19"/>
@@ -1743,15 +1751,15 @@
       <c r="H38" s="20"/>
       <c r="I38" s="23">
         <f>I36-I37</f>
-        <v>998999.91749999998</v>
+        <v>868695.91749999998</v>
       </c>
       <c r="J38" s="24"/>
     </row>
     <row r="39" spans="1:10" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="45"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="19"/>
       <c r="D39" s="22"/>
       <c r="E39" s="19"/>
@@ -1760,15 +1768,15 @@
       <c r="H39" s="20"/>
       <c r="I39" s="40">
         <f>I38*15%</f>
-        <v>149849.98762499998</v>
+        <v>130304.38762499999</v>
       </c>
       <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="45"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="41"/>
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
@@ -1777,24 +1785,14 @@
       <c r="H40" s="41"/>
       <c r="I40" s="40">
         <f>I39+I38</f>
-        <v>1148849.905125</v>
-      </c>
+        <v>999000.30512499996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I42" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="I25:I26"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
@@ -1811,6 +1809,19 @@
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="B24:J24"/>
     <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.39370078740157483" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
